--- a/hw_2/results/Отчет.xlsx
+++ b/hw_2/results/Отчет.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Количество элементов</t>
   </si>
@@ -47,13 +47,46 @@
     <t>MergeSort</t>
   </si>
   <si>
-    <t>При запуске алгоритма на отсортированном массиве, уже на файле из 2048 элементов возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</t>
-  </si>
-  <si>
     <t>Отсортированный массив</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</t>
+  </si>
+  <si>
+    <t>d - heap (при d = 3)</t>
+  </si>
+  <si>
+    <t>d - heap (при d = 4)</t>
+  </si>
+  <si>
+    <t>d - heap (при d = 5)</t>
+  </si>
+  <si>
+    <t>d - heap (при d = 6)</t>
+  </si>
+  <si>
+    <t>Leftist-heap</t>
+  </si>
+  <si>
+    <t>Для всех перестановок исходного массива скорость работы алгоритма не выше чем его скорость работы на случайных данных</t>
+  </si>
+  <si>
+    <t>Трехпутевое слияние</t>
+  </si>
+  <si>
+    <t>Четырехпутевое слияние</t>
+  </si>
+  <si>
+    <t>Пятипутевое слияние</t>
+  </si>
+  <si>
+    <t>Шестипутевое слияние</t>
+  </si>
+  <si>
+    <t>Выбор из дерева</t>
   </si>
 </sst>
 </file>
@@ -146,14 +179,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -210,7 +243,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>Быстрая сортировка (абсцисса - время в миллисекундах, ордината - объем сортируемых данных)</a:t>
+              <a:t>Быстрая сортировка</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -282,33 +315,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3578</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Лист1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -330,6 +336,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +390,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>При запуске алгоритма на отсортированном массиве, уже на файле из 2048 элементов возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
+                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292125888"/>
-        <c:axId val="292126280"/>
+        <c:axId val="251316640"/>
+        <c:axId val="251319776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292125888"/>
+        <c:axId val="251316640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,8 +459,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма (мс)</a:t>
+                  <a:t>Размер</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> входного массива</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -498,12 +536,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292126280"/>
+        <c:crossAx val="251319776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="292126280"/>
+        <c:axId val="251319776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +582,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Размер входного массива</a:t>
+                  <a:t>Время работы (мс)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -616,7 +654,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292125888"/>
+        <c:crossAx val="251316640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -700,7 +738,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>Пирамидальная сортировка (абсцисса - время в миллисекундах, ордината - объем сортируемых данных)</a:t>
+              <a:t>Пирамидальная сортировка</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -772,33 +810,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$27:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4172</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20785</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Лист1!$B$27:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -820,6 +831,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>При запуске алгоритма на отсортированном массиве, уже на файле из 2048 элементов возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
+                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -871,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290923952"/>
-        <c:axId val="290922776"/>
+        <c:axId val="251316248"/>
+        <c:axId val="297711408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290923952"/>
+        <c:axId val="251316248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +954,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма (мс)</a:t>
+                  <a:t>Размер входного массива</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -988,12 +1026,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290922776"/>
+        <c:crossAx val="297711408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290922776"/>
+        <c:axId val="297711408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1072,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Размер входного массива</a:t>
+                  <a:t>Время работы (мс)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1106,7 +1144,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290923952"/>
+        <c:crossAx val="251316248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,7 +1232,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>ортировка слиянием (абсцисса - время в миллисекундах, ордината - объем сортируемых данных)</a:t>
+              <a:t>ортировка слиянием</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1266,6 +1304,33 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Лист1!$B$49:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Лист1!$A$49:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1274,46 +1339,19 @@
                   <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1529</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3084</c:v>
+                  <c:v>1796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6131</c:v>
+                  <c:v>3015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13247</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$49:$B$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262144</c:v>
+                  <c:v>6453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1379,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>При запуске алгоритма на отсортированном массиве, уже на файле из 2048 элементов возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
+                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,11 +1403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290925912"/>
-        <c:axId val="290924344"/>
+        <c:axId val="297713760"/>
+        <c:axId val="297710624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290925912"/>
+        <c:axId val="297713760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма (мс)</a:t>
+                  <a:t>Размер входного массива</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1482,12 +1520,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290924344"/>
+        <c:crossAx val="297710624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290924344"/>
+        <c:axId val="297710624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1566,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Размер входного массива</a:t>
+                  <a:t>Время работы (мс)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1600,7 +1638,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290925912"/>
+        <c:crossAx val="297713760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1684,7 +1722,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>Сравнение трех алгоритмов (абсцисса - время в миллисекундах, ордината - объем сортируемых данных)</a:t>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>первых трех алгоритмов </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1745,6 +1791,33 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Лист1!$B$49:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Лист1!$A$49:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1753,46 +1826,19 @@
                   <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1529</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3084</c:v>
+                  <c:v>1796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6131</c:v>
+                  <c:v>3015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13247</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$49:$B$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262144</c:v>
+                  <c:v>6453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,33 +1865,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3578</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Лист1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1867,6 +1886,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,33 +1941,6 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$27:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4172</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20785</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Лист1!$B$27:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1943,6 +1962,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$27:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,11 +2003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320132568"/>
-        <c:axId val="320132960"/>
+        <c:axId val="297712192"/>
+        <c:axId val="297712584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320132568"/>
+        <c:axId val="297712192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2048,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы алгоритма (мс)</a:t>
+                  <a:t>Размер входного массива</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2074,12 +2120,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320132960"/>
+        <c:crossAx val="297712584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320132960"/>
+        <c:axId val="297712584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2166,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Размер входного массива</a:t>
+                  <a:t>Время работы (мс)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2192,7 +2238,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320132568"/>
+        <c:crossAx val="297712192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2236,6 +2282,2412 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>времени работы </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>d-heapsort </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>при разных </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>d</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>d=3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$85:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$85:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>d=4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$93:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$93:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>d=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$101:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$101:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>d=6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$109:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$109:$A$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297713368"/>
+        <c:axId val="297714152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297713368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер входного массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297714152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297714152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297713368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Leftist-heap</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$131:$B$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$131:$A$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297709448"/>
+        <c:axId val="297707488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297709448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер входного массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297707488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297707488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297709448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>времени работы многопутевого слияния при разном количестве путей</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Трехпутевое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$153:$B$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$153:$A$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Четырехпутевое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$161:$B$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$161:$A$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Пятипутевое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$169:$B$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$169:$A$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Шестипутевое</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$177:$B$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$177:$A$182</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297712976"/>
+        <c:axId val="297707096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297712976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер входного массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297707096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297707096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297712976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Выбор из дерева</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$199:$B$204</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$199:$A$204</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323424072"/>
+        <c:axId val="323412704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323424072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер входного массива</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323412704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323412704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы (мс)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323424072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2421,6 +4873,154 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3970,6 +6570,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4585,13 +9249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4608,6 +9272,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4879,10 +9671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,180 +9700,180 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="3">
         <v>8192</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="B5" s="3">
         <v>16384</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1516</v>
+        <v>750</v>
       </c>
       <c r="B6" s="3">
         <v>32768</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3578</v>
+        <v>1453</v>
       </c>
       <c r="B7" s="3">
         <v>65536</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7402</v>
+        <v>2875</v>
       </c>
       <c r="B8" s="3">
         <v>131072</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>16952</v>
+        <v>5531</v>
       </c>
       <c r="B9" s="3">
         <v>262144</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="B27" s="3">
         <v>8192</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>902</v>
+        <v>515</v>
       </c>
       <c r="B28" s="3">
         <v>16384</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2046</v>
+        <v>1156</v>
       </c>
       <c r="B29" s="3">
         <v>32768</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>4172</v>
+        <v>2375</v>
       </c>
       <c r="B30" s="3">
         <v>65536</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>9428</v>
+        <v>4546</v>
       </c>
       <c r="B31" s="3">
         <v>131072</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>20785</v>
+        <v>9906</v>
       </c>
       <c r="B32" s="3">
         <v>262144</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -5090,66 +9882,850 @@
       <c r="B49" s="3">
         <v>8192</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>628</v>
+        <v>391</v>
       </c>
       <c r="B50" s="3">
         <v>16384</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>1529</v>
+        <v>843</v>
       </c>
       <c r="B51" s="3">
         <v>32768</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>3084</v>
+        <v>1796</v>
       </c>
       <c r="B52" s="3">
         <v>65536</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>6131</v>
+        <v>3015</v>
       </c>
       <c r="B53" s="3">
         <v>131072</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>13247</v>
+        <v>6453</v>
       </c>
       <c r="B54" s="3">
         <v>262144</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>9</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>359</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>921</v>
+      </c>
+      <c r="B86" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>1687</v>
+      </c>
+      <c r="B87" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>3171</v>
+      </c>
+      <c r="B88" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>6796</v>
+      </c>
+      <c r="B89" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>14953</v>
+      </c>
+      <c r="B90" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>296</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>640</v>
+      </c>
+      <c r="B94" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>1406</v>
+      </c>
+      <c r="B95" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>3062</v>
+      </c>
+      <c r="B96" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>6734</v>
+      </c>
+      <c r="B97" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>14344</v>
+      </c>
+      <c r="B98" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>297</v>
+      </c>
+      <c r="B101" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>671</v>
+      </c>
+      <c r="B102" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>1453</v>
+      </c>
+      <c r="B103" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>3141</v>
+      </c>
+      <c r="B104" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>6656</v>
+      </c>
+      <c r="B105" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>14515</v>
+      </c>
+      <c r="B106" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>312</v>
+      </c>
+      <c r="B109" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>671</v>
+      </c>
+      <c r="B110" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>1453</v>
+      </c>
+      <c r="B111" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>3156</v>
+      </c>
+      <c r="B112" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>7046</v>
+      </c>
+      <c r="B113" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>14875</v>
+      </c>
+      <c r="B114" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>75</v>
+      </c>
+      <c r="B131" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>106</v>
+      </c>
+      <c r="B132" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>219</v>
+      </c>
+      <c r="B133" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>496</v>
+      </c>
+      <c r="B134" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B135" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B136" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>484</v>
+      </c>
+      <c r="B153" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B154" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>2187</v>
+      </c>
+      <c r="B155" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>3572</v>
+      </c>
+      <c r="B156" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>7756</v>
+      </c>
+      <c r="B157" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>16314</v>
+      </c>
+      <c r="B158" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>374</v>
+      </c>
+      <c r="B161" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>703</v>
+      </c>
+      <c r="B162" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>1687</v>
+      </c>
+      <c r="B163" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>3078</v>
+      </c>
+      <c r="B164" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>7522</v>
+      </c>
+      <c r="B165" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>13882</v>
+      </c>
+      <c r="B166" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>374</v>
+      </c>
+      <c r="B169" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>671</v>
+      </c>
+      <c r="B170" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>1671</v>
+      </c>
+      <c r="B171" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>3062</v>
+      </c>
+      <c r="B172" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>7421</v>
+      </c>
+      <c r="B173" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>14211</v>
+      </c>
+      <c r="B174" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>306</v>
+      </c>
+      <c r="B177" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>796</v>
+      </c>
+      <c r="B178" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>1453</v>
+      </c>
+      <c r="B179" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>3390</v>
+      </c>
+      <c r="B180" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>7109</v>
+      </c>
+      <c r="B181" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>13220</v>
+      </c>
+      <c r="B182" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>375</v>
+      </c>
+      <c r="B199" s="3">
+        <v>8192</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>782</v>
+      </c>
+      <c r="B200" s="3">
+        <v>16384</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>1625</v>
+      </c>
+      <c r="B201" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>3140</v>
+      </c>
+      <c r="B202" s="3">
+        <v>65536</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>6051</v>
+      </c>
+      <c r="B203" s="3">
+        <v>131072</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>12759</v>
+      </c>
+      <c r="B204" s="3">
+        <v>262144</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="50">
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D204"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D54"/>
@@ -5160,6 +10736,42 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C4:D9"/>
     <mergeCell ref="C26:D32"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D98"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D90"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D114"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D136"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D166"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="C177:D182"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hw_2/results/Отчет.xlsx
+++ b/hw_2/results/Отчет.xlsx
@@ -71,9 +71,6 @@
     <t>Leftist-heap</t>
   </si>
   <si>
-    <t>Для всех перестановок исходного массива скорость работы алгоритма не выше чем его скорость работы на случайных данных</t>
-  </si>
-  <si>
     <t>Трехпутевое слияние</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Выбор из дерева</t>
+  </si>
+  <si>
+    <t>На всех перестановок исходного массива алгоритм работает не медленнее чем  на случайных данных</t>
   </si>
 </sst>
 </file>
@@ -179,14 +179,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -414,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251316640"/>
-        <c:axId val="251319776"/>
+        <c:axId val="300604072"/>
+        <c:axId val="300601720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251316640"/>
+        <c:axId val="300604072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,12 +536,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251319776"/>
+        <c:crossAx val="300601720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251319776"/>
+        <c:axId val="300601720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +654,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251316640"/>
+        <c:crossAx val="300604072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -909,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251316248"/>
-        <c:axId val="297711408"/>
+        <c:axId val="300602896"/>
+        <c:axId val="300604856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251316248"/>
+        <c:axId val="300602896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,12 +1026,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297711408"/>
+        <c:crossAx val="300604856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297711408"/>
+        <c:axId val="300604856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1144,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251316248"/>
+        <c:crossAx val="300602896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1403,11 +1403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297713760"/>
-        <c:axId val="297710624"/>
+        <c:axId val="300606816"/>
+        <c:axId val="300603680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297713760"/>
+        <c:axId val="300606816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +1520,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297710624"/>
+        <c:crossAx val="300603680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297710624"/>
+        <c:axId val="300603680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1638,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297713760"/>
+        <c:crossAx val="300606816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2003,11 +2003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297712192"/>
-        <c:axId val="297712584"/>
+        <c:axId val="300607600"/>
+        <c:axId val="300600152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297712192"/>
+        <c:axId val="300607600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2120,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297712584"/>
+        <c:crossAx val="300600152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297712584"/>
+        <c:axId val="300600152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2238,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297712192"/>
+        <c:crossAx val="300607600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2722,11 +2722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297713368"/>
-        <c:axId val="297714152"/>
+        <c:axId val="302245344"/>
+        <c:axId val="302248480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297713368"/>
+        <c:axId val="302245344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,12 +2839,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297714152"/>
+        <c:crossAx val="302248480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297714152"/>
+        <c:axId val="302248480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,7 +2957,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297713368"/>
+        <c:crossAx val="302245344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3245,11 +3245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297709448"/>
-        <c:axId val="297707488"/>
+        <c:axId val="302244560"/>
+        <c:axId val="302243384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297709448"/>
+        <c:axId val="302244560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,12 +3362,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297707488"/>
+        <c:crossAx val="302243384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297707488"/>
+        <c:axId val="302243384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3480,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297709448"/>
+        <c:crossAx val="302244560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3919,11 +3919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297712976"/>
-        <c:axId val="297707096"/>
+        <c:axId val="302246912"/>
+        <c:axId val="302246520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297712976"/>
+        <c:axId val="302246912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,12 +4036,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297707096"/>
+        <c:crossAx val="302246520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297707096"/>
+        <c:axId val="302246520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297712976"/>
+        <c:crossAx val="302246912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4441,11 +4441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="323424072"/>
-        <c:axId val="323412704"/>
+        <c:axId val="302241424"/>
+        <c:axId val="302247696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="323424072"/>
+        <c:axId val="302241424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,12 +4558,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323412704"/>
+        <c:crossAx val="302247696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="323412704"/>
+        <c:axId val="302247696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,7 +4676,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323424072"/>
+        <c:crossAx val="302241424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9673,8 +9673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9700,22 +9700,22 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -9724,10 +9724,10 @@
       <c r="B4" s="3">
         <v>8192</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -9736,8 +9736,8 @@
       <c r="B5" s="3">
         <v>16384</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -9746,8 +9746,8 @@
       <c r="B6" s="3">
         <v>32768</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -9756,8 +9756,8 @@
       <c r="B7" s="3">
         <v>65536</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -9766,8 +9766,8 @@
       <c r="B8" s="3">
         <v>131072</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -9776,26 +9776,26 @@
       <c r="B9" s="3">
         <v>262144</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -9804,8 +9804,8 @@
       <c r="B27" s="3">
         <v>8192</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -9814,8 +9814,8 @@
       <c r="B28" s="3">
         <v>16384</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -9824,8 +9824,8 @@
       <c r="B29" s="3">
         <v>32768</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -9834,8 +9834,8 @@
       <c r="B30" s="3">
         <v>65536</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -9844,8 +9844,8 @@
       <c r="B31" s="3">
         <v>131072</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -9854,26 +9854,26 @@
       <c r="B32" s="3">
         <v>262144</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -9882,8 +9882,8 @@
       <c r="B49" s="3">
         <v>8192</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -9892,8 +9892,8 @@
       <c r="B50" s="3">
         <v>16384</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -9902,8 +9902,8 @@
       <c r="B51" s="3">
         <v>32768</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -9912,8 +9912,8 @@
       <c r="B52" s="3">
         <v>65536</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -9922,8 +9922,8 @@
       <c r="B53" s="3">
         <v>131072</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -9932,24 +9932,24 @@
       <c r="B54" s="3">
         <v>262144</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -9958,10 +9958,10 @@
       <c r="B85" s="3">
         <v>8192</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -9970,8 +9970,8 @@
       <c r="B86" s="3">
         <v>16384</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -9980,8 +9980,8 @@
       <c r="B87" s="3">
         <v>32768</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -9990,8 +9990,8 @@
       <c r="B88" s="3">
         <v>65536</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -10000,8 +10000,8 @@
       <c r="B89" s="3">
         <v>131072</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -10010,24 +10010,24 @@
       <c r="B90" s="3">
         <v>262144</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -10036,10 +10036,10 @@
       <c r="B93" s="3">
         <v>8192</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -10048,8 +10048,8 @@
       <c r="B94" s="3">
         <v>16384</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -10058,8 +10058,8 @@
       <c r="B95" s="3">
         <v>32768</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -10068,8 +10068,8 @@
       <c r="B96" s="3">
         <v>65536</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -10078,8 +10078,8 @@
       <c r="B97" s="3">
         <v>131072</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -10088,24 +10088,24 @@
       <c r="B98" s="3">
         <v>262144</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
@@ -10114,10 +10114,10 @@
       <c r="B101" s="3">
         <v>8192</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -10126,8 +10126,8 @@
       <c r="B102" s="3">
         <v>16384</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -10136,8 +10136,8 @@
       <c r="B103" s="3">
         <v>32768</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -10146,8 +10146,8 @@
       <c r="B104" s="3">
         <v>65536</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -10156,8 +10156,8 @@
       <c r="B105" s="3">
         <v>131072</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -10166,24 +10166,24 @@
       <c r="B106" s="3">
         <v>262144</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
@@ -10192,10 +10192,10 @@
       <c r="B109" s="3">
         <v>8192</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -10204,8 +10204,8 @@
       <c r="B110" s="3">
         <v>16384</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
@@ -10214,8 +10214,8 @@
       <c r="B111" s="3">
         <v>32768</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
@@ -10224,8 +10224,8 @@
       <c r="B112" s="3">
         <v>65536</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -10234,8 +10234,8 @@
       <c r="B113" s="3">
         <v>131072</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -10244,36 +10244,36 @@
       <c r="B114" s="3">
         <v>262144</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>75</v>
       </c>
       <c r="B131" s="3">
         <v>8192</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="4"/>
+      <c r="C131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -10282,8 +10282,8 @@
       <c r="B132" s="3">
         <v>16384</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -10292,8 +10292,8 @@
       <c r="B133" s="3">
         <v>32768</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
@@ -10302,8 +10302,8 @@
       <c r="B134" s="3">
         <v>65536</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
@@ -10312,8 +10312,8 @@
       <c r="B135" s="3">
         <v>131072</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
@@ -10322,24 +10322,24 @@
       <c r="B136" s="3">
         <v>262144</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="A151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -10348,10 +10348,10 @@
       <c r="B153" s="3">
         <v>8192</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D153" s="4"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -10360,8 +10360,8 @@
       <c r="B154" s="3">
         <v>16384</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
@@ -10370,8 +10370,8 @@
       <c r="B155" s="3">
         <v>32768</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -10380,8 +10380,8 @@
       <c r="B156" s="3">
         <v>65536</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
@@ -10390,8 +10390,8 @@
       <c r="B157" s="3">
         <v>131072</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
@@ -10400,24 +10400,24 @@
       <c r="B158" s="3">
         <v>262144</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="A159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
@@ -10426,10 +10426,10 @@
       <c r="B161" s="3">
         <v>8192</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="4"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
@@ -10438,8 +10438,8 @@
       <c r="B162" s="3">
         <v>16384</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -10448,8 +10448,8 @@
       <c r="B163" s="3">
         <v>32768</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -10458,8 +10458,8 @@
       <c r="B164" s="3">
         <v>65536</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -10468,8 +10468,8 @@
       <c r="B165" s="3">
         <v>131072</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
@@ -10478,24 +10478,24 @@
       <c r="B166" s="3">
         <v>262144</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="A167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
@@ -10504,10 +10504,10 @@
       <c r="B169" s="3">
         <v>8192</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
@@ -10516,8 +10516,8 @@
       <c r="B170" s="3">
         <v>16384</v>
       </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
@@ -10526,8 +10526,8 @@
       <c r="B171" s="3">
         <v>32768</v>
       </c>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -10536,8 +10536,8 @@
       <c r="B172" s="3">
         <v>65536</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -10546,8 +10546,8 @@
       <c r="B173" s="3">
         <v>131072</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
@@ -10556,24 +10556,24 @@
       <c r="B174" s="3">
         <v>262144</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="A175" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -10582,10 +10582,10 @@
       <c r="B177" s="3">
         <v>8192</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D177" s="4"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
@@ -10594,8 +10594,8 @@
       <c r="B178" s="3">
         <v>16384</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -10604,8 +10604,8 @@
       <c r="B179" s="3">
         <v>32768</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
@@ -10614,8 +10614,8 @@
       <c r="B180" s="3">
         <v>65536</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
@@ -10624,8 +10624,8 @@
       <c r="B181" s="3">
         <v>131072</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -10634,24 +10634,24 @@
       <c r="B182" s="3">
         <v>262144</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
+      <c r="A197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="5"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
@@ -10660,10 +10660,10 @@
       <c r="B199" s="3">
         <v>8192</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="4"/>
+      <c r="C199" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
@@ -10672,8 +10672,8 @@
       <c r="B200" s="3">
         <v>16384</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
@@ -10682,8 +10682,8 @@
       <c r="B201" s="3">
         <v>32768</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
@@ -10692,8 +10692,8 @@
       <c r="B202" s="3">
         <v>65536</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
@@ -10702,8 +10702,8 @@
       <c r="B203" s="3">
         <v>131072</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
@@ -10712,8 +10712,8 @@
       <c r="B204" s="3">
         <v>262144</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
@@ -10722,45 +10722,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D204"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D54"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C4:D9"/>
-    <mergeCell ref="C26:D32"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D98"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D90"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D114"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D136"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D158"/>
-    <mergeCell ref="A159:D159"/>
     <mergeCell ref="A160:B160"/>
     <mergeCell ref="C160:D160"/>
     <mergeCell ref="C161:D166"/>
@@ -10772,6 +10733,45 @@
     <mergeCell ref="A175:D175"/>
     <mergeCell ref="A176:B176"/>
     <mergeCell ref="C176:D176"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="C109:D114"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D136"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C4:D9"/>
+    <mergeCell ref="C26:D32"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D204"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D54"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D98"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D90"/>
+    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hw_2/results/Отчет.xlsx
+++ b/hw_2/results/Отчет.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zerbs\Desktop\ka second lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zerbs\Desktop\Отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Количество элементов</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Шестипутевое слияние</t>
-  </si>
-  <si>
-    <t>Выбор из дерева</t>
   </si>
   <si>
     <t>На всех перестановок исходного массива алгоритм работает не медленнее чем  на случайных данных</t>
@@ -174,7 +171,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -188,6 +185,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Акцент2" xfId="3" builtinId="33"/>
@@ -414,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300604072"/>
-        <c:axId val="300601720"/>
+        <c:axId val="221001984"/>
+        <c:axId val="221003944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300604072"/>
+        <c:axId val="221001984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,12 +535,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300601720"/>
+        <c:crossAx val="221003944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300601720"/>
+        <c:axId val="221003944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +653,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300604072"/>
+        <c:crossAx val="221001984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -909,11 +908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300602896"/>
-        <c:axId val="300604856"/>
+        <c:axId val="221000808"/>
+        <c:axId val="221003160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300602896"/>
+        <c:axId val="221000808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,12 +1025,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300604856"/>
+        <c:crossAx val="221003160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300604856"/>
+        <c:axId val="221003160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1143,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300602896"/>
+        <c:crossAx val="221000808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1403,11 +1402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300606816"/>
-        <c:axId val="300603680"/>
+        <c:axId val="221001200"/>
+        <c:axId val="221004336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300606816"/>
+        <c:axId val="221001200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +1519,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300603680"/>
+        <c:crossAx val="221004336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300603680"/>
+        <c:axId val="221004336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1637,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300606816"/>
+        <c:crossAx val="221001200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2003,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300607600"/>
-        <c:axId val="300600152"/>
+        <c:axId val="220999632"/>
+        <c:axId val="221004728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300607600"/>
+        <c:axId val="220999632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2119,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300600152"/>
+        <c:crossAx val="221004728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300600152"/>
+        <c:axId val="221004728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2237,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300607600"/>
+        <c:crossAx val="220999632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2722,11 +2721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302245344"/>
-        <c:axId val="302248480"/>
+        <c:axId val="222986040"/>
+        <c:axId val="222988000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302245344"/>
+        <c:axId val="222986040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,12 +2838,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302248480"/>
+        <c:crossAx val="222988000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302248480"/>
+        <c:axId val="222988000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,7 +2956,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302245344"/>
+        <c:crossAx val="222986040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3245,11 +3244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302244560"/>
-        <c:axId val="302243384"/>
+        <c:axId val="222988392"/>
+        <c:axId val="222983688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302244560"/>
+        <c:axId val="222988392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,12 +3361,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302243384"/>
+        <c:crossAx val="222983688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302243384"/>
+        <c:axId val="222983688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3479,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302244560"/>
+        <c:crossAx val="222988392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3665,22 +3664,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>484</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1031</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2187</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3572</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7756</c:v>
+                  <c:v>1605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16314</c:v>
+                  <c:v>3186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,22 +3738,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>374</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>703</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1687</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3078</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7522</c:v>
+                  <c:v>1486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13882</c:v>
+                  <c:v>2679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,22 +3814,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>374</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>671</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1671</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3062</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7421</c:v>
+                  <c:v>1399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14211</c:v>
+                  <c:v>2583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,22 +3888,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>306</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>796</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1453</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3390</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7109</c:v>
+                  <c:v>1367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13220</c:v>
+                  <c:v>2499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,11 +3918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302246912"/>
-        <c:axId val="302246520"/>
+        <c:axId val="222984080"/>
+        <c:axId val="222989568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302246912"/>
+        <c:axId val="222984080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,12 +4035,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302246520"/>
+        <c:crossAx val="222989568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302246520"/>
+        <c:axId val="222989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4153,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302246912"/>
+        <c:crossAx val="222984080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4198,496 +4197,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>Выбор из дерева</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$B$199:$B$204</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262144</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$A$199:$A$204</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>782</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3140</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$C$4:$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>При запуске алгоритма на отсортированном массиве, уже на первом файле возникает ошибка по причине слишком большой глубины рекурсии, это говорит о том, что лучше использовать рандомизированный вариант процедуры Partition</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$4:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="302241424"/>
-        <c:axId val="302247696"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="302241424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Размер входного массива</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="302247696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="302247696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Время работы (мс)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="302241424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4984,43 +4493,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8118,522 +7590,6 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9373,38 +8329,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9673,8 +8597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10271,7 +9195,7 @@
         <v>8192</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" s="6"/>
     </row>
@@ -10343,7 +9267,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>484</v>
+        <v>105</v>
       </c>
       <c r="B153" s="3">
         <v>8192</v>
@@ -10355,7 +9279,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>1031</v>
+        <v>180</v>
       </c>
       <c r="B154" s="3">
         <v>16384</v>
@@ -10365,7 +9289,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>2187</v>
+        <v>378</v>
       </c>
       <c r="B155" s="3">
         <v>32768</v>
@@ -10375,7 +9299,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>3572</v>
+        <v>756</v>
       </c>
       <c r="B156" s="3">
         <v>65536</v>
@@ -10385,7 +9309,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>7756</v>
+        <v>1605</v>
       </c>
       <c r="B157" s="3">
         <v>131072</v>
@@ -10395,7 +9319,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>16314</v>
+        <v>3186</v>
       </c>
       <c r="B158" s="3">
         <v>262144</v>
@@ -10421,7 +9345,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="B161" s="3">
         <v>8192</v>
@@ -10433,7 +9357,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>703</v>
+        <v>134</v>
       </c>
       <c r="B162" s="3">
         <v>16384</v>
@@ -10443,7 +9367,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>1687</v>
+        <v>333</v>
       </c>
       <c r="B163" s="3">
         <v>32768</v>
@@ -10453,7 +9377,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>3078</v>
+        <v>657</v>
       </c>
       <c r="B164" s="3">
         <v>65536</v>
@@ -10463,7 +9387,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>7522</v>
+        <v>1486</v>
       </c>
       <c r="B165" s="3">
         <v>131072</v>
@@ -10473,7 +9397,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>13882</v>
+        <v>2679</v>
       </c>
       <c r="B166" s="3">
         <v>262144</v>
@@ -10499,7 +9423,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>374</v>
+        <v>121</v>
       </c>
       <c r="B169" s="3">
         <v>8192</v>
@@ -10511,7 +9435,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>671</v>
+        <v>130</v>
       </c>
       <c r="B170" s="3">
         <v>16384</v>
@@ -10521,7 +9445,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>1671</v>
+        <v>312</v>
       </c>
       <c r="B171" s="3">
         <v>32768</v>
@@ -10531,7 +9455,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>3062</v>
+        <v>606</v>
       </c>
       <c r="B172" s="3">
         <v>65536</v>
@@ -10541,7 +9465,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>7421</v>
+        <v>1399</v>
       </c>
       <c r="B173" s="3">
         <v>131072</v>
@@ -10551,7 +9475,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>14211</v>
+        <v>2583</v>
       </c>
       <c r="B174" s="3">
         <v>262144</v>
@@ -10577,7 +9501,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>306</v>
+        <v>114</v>
       </c>
       <c r="B177" s="3">
         <v>8192</v>
@@ -10589,7 +9513,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>796</v>
+        <v>137</v>
       </c>
       <c r="B178" s="3">
         <v>16384</v>
@@ -10599,7 +9523,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>1453</v>
+        <v>318</v>
       </c>
       <c r="B179" s="3">
         <v>32768</v>
@@ -10609,7 +9533,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>3390</v>
+        <v>583</v>
       </c>
       <c r="B180" s="3">
         <v>65536</v>
@@ -10619,7 +9543,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>7109</v>
+        <v>1367</v>
       </c>
       <c r="B181" s="3">
         <v>131072</v>
@@ -10629,7 +9553,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>13220</v>
+        <v>2499</v>
       </c>
       <c r="B182" s="3">
         <v>262144</v>
@@ -10638,82 +9562,40 @@
       <c r="D182" s="6"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>375</v>
-      </c>
-      <c r="B199" s="3">
-        <v>8192</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D199" s="6"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>782</v>
-      </c>
-      <c r="B200" s="3">
-        <v>16384</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>1625</v>
-      </c>
-      <c r="B201" s="3">
-        <v>32768</v>
-      </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>3140</v>
-      </c>
-      <c r="B202" s="3">
-        <v>65536</v>
-      </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>6051</v>
-      </c>
-      <c r="B203" s="3">
-        <v>131072</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>12759</v>
-      </c>
-      <c r="B204" s="3">
-        <v>262144</v>
-      </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
@@ -10721,45 +9603,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D166"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="C177:D182"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D174"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D158"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="C109:D114"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D136"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C4:D9"/>
-    <mergeCell ref="C26:D32"/>
+  <mergeCells count="49">
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A198:B198"/>
     <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D204"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D54"/>
@@ -10772,6 +9619,40 @@
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D90"/>
     <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C4:D9"/>
+    <mergeCell ref="C26:D32"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D114"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D136"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D166"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="C177:D182"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
